--- a/msg_pns.xlsx
+++ b/msg_pns.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A6D9D315-F2A7-4097-BF12-0A628FEE6291}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{904EECF6-0E5F-4396-99EE-E9D2F68BAB98}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="message" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="158">
   <si>
     <t>msg_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -528,6 +529,120 @@
   </si>
   <si>
     <t>cQueryPnSOrderAns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QueryOwnOrd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cQueryOwnOrd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x6027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x6028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cQueryOwnOrdAns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{requestid, oid, cid, pnsoid, poid,pnsid, pnsgid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  `CID` bigint(20) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `CGID` bigint(20) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `PNSGID` bigint(20) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `PNSID` bigint(20) NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `BLANCE` bigint(20) DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `MARGIN` bigint(20) DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `FREEMARGIN` bigint(20) DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `PREBLANCE` bigint(20) DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `CHANGEBLAN` bigint(20) DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  `PROFITLOSS` bigint(20) DEFAULT NULL,</t>
+  </si>
+  <si>
+    <t>QueryAllOrdSent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QueryAllOrdRecv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cQueryAllOrdSent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request public price list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request own pns list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request all orders from one pns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request one order from orderid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cQueryAllOrdSentAns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x602B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x602C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x602E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cQueryAllOrdRecv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cQueryAllOrdRecvAns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x602D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -623,13 +738,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -921,10 +1036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -959,7 +1074,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
@@ -976,7 +1091,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
+      <c r="A3" s="9"/>
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -994,7 +1109,7 @@
       <c r="A4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
@@ -1011,7 +1126,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
+      <c r="A6" s="9"/>
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -1029,7 +1144,7 @@
       <c r="A7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B8" t="s">
@@ -1046,7 +1161,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
+      <c r="A9" s="9"/>
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -1099,7 +1214,7 @@
       <c r="A13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B14" t="s">
@@ -1116,7 +1231,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
+      <c r="A15" s="9"/>
       <c r="B15" t="s">
         <v>28</v>
       </c>
@@ -1134,7 +1249,7 @@
       <c r="A16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="10" t="s">
         <v>100</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -1154,7 +1269,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="8" t="s">
         <v>102</v>
       </c>
@@ -1247,8 +1362,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="11" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
         <v>57</v>
       </c>
       <c r="B33" t="s">
@@ -1264,8 +1379,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="11"/>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="9"/>
       <c r="B34" t="s">
         <v>42</v>
       </c>
@@ -1279,8 +1394,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B36" t="s">
@@ -1296,8 +1411,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="11"/>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="9"/>
       <c r="B37" t="s">
         <v>43</v>
       </c>
@@ -1311,8 +1426,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
         <v>59</v>
       </c>
       <c r="B39" t="s">
@@ -1328,8 +1443,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="11"/>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="9"/>
       <c r="B40" t="s">
         <v>44</v>
       </c>
@@ -1343,8 +1458,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="11" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
         <v>113</v>
       </c>
       <c r="B42" t="s">
@@ -1359,9 +1474,12 @@
       <c r="E42" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="11"/>
+      <c r="F42" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="9"/>
       <c r="B43" t="s">
         <v>116</v>
       </c>
@@ -1375,8 +1493,8 @@
         <v>117</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="11" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
         <v>120</v>
       </c>
       <c r="B45" t="s">
@@ -1391,9 +1509,12 @@
       <c r="E45" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="11"/>
+      <c r="F45" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="9"/>
       <c r="B46" t="s">
         <v>121</v>
       </c>
@@ -1407,8 +1528,8 @@
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="11" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
         <v>124</v>
       </c>
       <c r="B48" t="s">
@@ -1423,9 +1544,12 @@
       <c r="E48" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="11"/>
+      <c r="F48" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="9"/>
       <c r="B49" t="s">
         <v>126</v>
       </c>
@@ -1439,15 +1563,117 @@
         <v>3</v>
       </c>
     </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B51" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51" t="s">
+        <v>130</v>
+      </c>
+      <c r="D51" t="s">
+        <v>133</v>
+      </c>
+      <c r="E51" t="s">
+        <v>129</v>
+      </c>
+      <c r="F51" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="9"/>
+      <c r="B52" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52" t="s">
+        <v>131</v>
+      </c>
+      <c r="D52" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B55" t="s">
+        <v>146</v>
+      </c>
+      <c r="C55" t="s">
+        <v>152</v>
+      </c>
+      <c r="D55" t="s">
+        <v>133</v>
+      </c>
+      <c r="E55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="9"/>
+      <c r="B56" t="s">
+        <v>151</v>
+      </c>
+      <c r="C56" t="s">
+        <v>153</v>
+      </c>
+      <c r="D56" t="s">
+        <v>51</v>
+      </c>
+      <c r="E56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B58" t="s">
+        <v>155</v>
+      </c>
+      <c r="C58" t="s">
+        <v>157</v>
+      </c>
+      <c r="D58" t="s">
+        <v>133</v>
+      </c>
+      <c r="E58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="9"/>
+      <c r="B59" t="s">
+        <v>156</v>
+      </c>
+      <c r="C59" t="s">
+        <v>154</v>
+      </c>
+      <c r="D59" t="s">
+        <v>51</v>
+      </c>
+      <c r="E59" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A48:A49"/>
+  <mergeCells count="16">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A48:A49"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="A30:A31"/>
@@ -1465,8 +1691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72719901-807E-4BD0-A339-A531D5C3C91D}">
   <dimension ref="C5:X29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1699,4 +1925,74 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{162F67E3-B0F2-45CE-B62C-A2595B3CF5DB}">
+  <dimension ref="E3:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="39.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/msg_pns.xlsx
+++ b/msg_pns.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{904EECF6-0E5F-4396-99EE-E9D2F68BAB98}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DEBF7046-2DDC-45F1-BEB9-281ADFCD8B7F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="message" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="ACC" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="157">
   <si>
     <t>msg_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,18 +232,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>list element</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xXXXX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{poid, price, quant, min, max, comment}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{requestid, clientid, pnsid, pnsgid, status index, list[]}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -560,36 +548,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  `CID` bigint(20) NOT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `CGID` bigint(20) NOT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `PNSGID` bigint(20) NOT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `PNSID` bigint(20) NOT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `BLANCE` bigint(20) DEFAULT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `MARGIN` bigint(20) DEFAULT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `FREEMARGIN` bigint(20) DEFAULT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `PREBLANCE` bigint(20) DEFAULT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `CHANGEBLAN` bigint(20) DEFAULT NULL,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  `PROFITLOSS` bigint(20) DEFAULT NULL,</t>
-  </si>
-  <si>
     <t>QueryAllOrdSent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -643,6 +601,54 @@
   </si>
   <si>
     <t>0x602D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACC Subscriber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QueryOwnAccTopPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QueryOwnAccNextPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cQueryOwnAccTopPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cQueryOwnAccTopPageAns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cQueryOwnAccNextPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cQueryOwnAccNextPageAns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x5001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x5002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x5003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x5004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element: margin, freemargin (balance calculate yourself)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -698,15 +704,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -714,11 +732,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -741,19 +774,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1036,16 +1086,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="64.125" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
@@ -1154,7 +1204,7 @@
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E8" t="s">
         <v>3</v>
@@ -1169,7 +1219,7 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E9" t="s">
         <v>3</v>
@@ -1179,7 +1229,7 @@
       <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="s">
@@ -1189,14 +1239,14 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
+      <c r="A12" s="10"/>
       <c r="B12" t="s">
         <v>18</v>
       </c>
@@ -1204,7 +1254,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E12" t="s">
         <v>3</v>
@@ -1249,41 +1299,41 @@
       <c r="A16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
-        <v>100</v>
+      <c r="A17" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>101</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>104</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>35</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>105</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1292,7 +1342,7 @@
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="D20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1315,15 +1365,6 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
-      <c r="B28" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -1331,212 +1372,233 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="16" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="16" t="s">
         <v>49</v>
       </c>
     </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+    </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="D33" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="15"/>
+      <c r="B34" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="15"/>
+      <c r="B37" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D37" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E33" t="s">
+      <c r="B39" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
-      <c r="B34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="15"/>
+      <c r="B40" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D36" t="s">
-        <v>48</v>
-      </c>
-      <c r="E36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="9"/>
-      <c r="B37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" t="s">
-        <v>63</v>
-      </c>
-      <c r="D37" t="s">
-        <v>51</v>
-      </c>
-      <c r="E37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" t="s">
-        <v>64</v>
-      </c>
-      <c r="D39" t="s">
-        <v>56</v>
-      </c>
-      <c r="E39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="9"/>
-      <c r="B40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" t="s">
-        <v>65</v>
-      </c>
-      <c r="D40" t="s">
-        <v>55</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="D40" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="16" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B42" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D42" t="s">
         <v>48</v>
       </c>
       <c r="E42" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F42" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="9"/>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C43" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D43" t="s">
         <v>51</v>
       </c>
       <c r="E43" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C45" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D45" t="s">
         <v>48</v>
       </c>
       <c r="E45" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F45" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="9"/>
       <c r="B46" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C46" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D46" t="s">
         <v>51</v>
       </c>
       <c r="E46" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B48" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C48" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D48" t="s">
         <v>48</v>
@@ -1545,16 +1607,16 @@
         <v>3</v>
       </c>
       <c r="F48" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="9"/>
       <c r="B49" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C49" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D49" t="s">
         <v>51</v>
@@ -1565,51 +1627,51 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B51" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" t="s">
         <v>127</v>
       </c>
-      <c r="B51" t="s">
-        <v>128</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>130</v>
       </c>
-      <c r="D51" t="s">
-        <v>133</v>
-      </c>
       <c r="E51" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F51" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="9"/>
       <c r="B52" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C52" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D52" t="s">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="B55" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C55" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="D55" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E55" t="s">
         <v>3</v>
@@ -1618,10 +1680,10 @@
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="9"/>
       <c r="B56" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="C56" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="D56" t="s">
         <v>51</v>
@@ -1632,16 +1694,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B58" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="C58" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="D58" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E58" t="s">
         <v>3</v>
@@ -1650,10 +1712,10 @@
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="9"/>
       <c r="B59" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="C59" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="D59" t="s">
         <v>51</v>
@@ -1662,13 +1724,88 @@
         <v>3</v>
       </c>
     </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F61" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="20"/>
+      <c r="B62" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="19"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="19"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F64" s="19"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="21"/>
+      <c r="B65" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F65" s="19"/>
+    </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A14:A15"/>
+  <mergeCells count="18">
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A64:A65"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="A51:A52"/>
@@ -1680,6 +1817,11 @@
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1688,10 +1830,107 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{162F67E3-B0F2-45CE-B62C-A2595B3CF5DB}">
+  <dimension ref="A4:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="14"/>
+      <c r="B6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
+      <c r="B9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:A9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72719901-807E-4BD0-A339-A531D5C3C91D}">
   <dimension ref="C5:X29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
@@ -1709,24 +1948,24 @@
   <sheetData>
     <row r="5" spans="3:16" x14ac:dyDescent="0.2">
       <c r="K5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.2">
       <c r="L6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" t="s">
+        <v>69</v>
+      </c>
+      <c r="N6" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" t="s">
         <v>71</v>
       </c>
-      <c r="M6" t="s">
-        <v>72</v>
-      </c>
-      <c r="N6" t="s">
-        <v>73</v>
-      </c>
-      <c r="O6" t="s">
-        <v>74</v>
-      </c>
       <c r="P6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.2">
@@ -1745,38 +1984,38 @@
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.2">
       <c r="G9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.2">
       <c r="H10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" t="s">
         <v>66</v>
       </c>
-      <c r="D12" t="s">
+      <c r="H12" t="s">
         <v>67</v>
       </c>
-      <c r="E12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" t="s">
-        <v>70</v>
-      </c>
       <c r="I12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.2">
@@ -1784,16 +2023,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1801,42 +2040,42 @@
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" t="s">
         <v>93</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" t="s">
         <v>88</v>
       </c>
-      <c r="E19" t="s">
+      <c r="I19" t="s">
+        <v>91</v>
+      </c>
+      <c r="J19" t="s">
+        <v>92</v>
+      </c>
+      <c r="K19" t="s">
         <v>96</v>
-      </c>
-      <c r="F19" t="s">
-        <v>97</v>
-      </c>
-      <c r="G19" t="s">
-        <v>87</v>
-      </c>
-      <c r="H19" t="s">
-        <v>91</v>
-      </c>
-      <c r="I19" t="s">
-        <v>94</v>
-      </c>
-      <c r="J19" t="s">
-        <v>95</v>
-      </c>
-      <c r="K19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="20" spans="3:24" x14ac:dyDescent="0.2">
@@ -1867,28 +2106,28 @@
     </row>
     <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="Q27" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="R27" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="S27" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="T27" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="S27" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="T27" s="7" t="s">
+      <c r="U27" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="V27" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="W27" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="X27" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="U27" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="V27" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="W27" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="X27" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="28" spans="3:24" x14ac:dyDescent="0.2">
@@ -1903,91 +2142,21 @@
         <v>0</v>
       </c>
       <c r="V28" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="W28" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="X28" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="P29" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="U29" t="s">
-        <v>83</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{162F67E3-B0F2-45CE-B62C-A2595B3CF5DB}">
-  <dimension ref="E3:E12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="5" max="5" width="39.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E11" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E12" t="s">
-        <v>143</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/msg_pns.xlsx
+++ b/msg_pns.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DEBF7046-2DDC-45F1-BEB9-281ADFCD8B7F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{93BA8582-2869-4045-B76B-00D2E46F3522}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="149">
   <si>
     <t>msg_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,10 +152,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{requestid, clientid, side, pnsid, pnsgid, price, quant}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -412,15 +408,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cDone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cDoneAns</t>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>can</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QueryPnSPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x6021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x6022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QueryPnSPageAns</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -428,55 +436,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x700B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x700C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{requestid, clientid, oid, side, poid, pnsoid, pnsid, pnsgid, price, quant, status}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{requestid, clientid, oid, side, poid, pnsoid, pnsid, pnsgid, price, quant}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{requestid, clientid, oid, side, poid, pnsoid,pnsid, pnsgid, price, quant}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not sure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>there should be a done there</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>can</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QueryPnSPage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x6021</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x6022</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QueryPnSPageAns</t>
+    <t>0x6023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x6024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QueryOwnPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QueryOwnPageAns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x6025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x6026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QueryPnSOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cQueryPnSOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cQueryPnSOrderAns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QueryOwnOrd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cQueryOwnOrd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -484,54 +484,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x6023</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x6024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QueryOwnPage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QueryOwnPageAns</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x6025</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x6026</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QueryPnSOrder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cQueryPnSOrder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cQueryPnSOrderAns</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QueryOwnOrd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cQueryOwnOrd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTTP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0x6027</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -649,6 +601,22 @@
   </si>
   <si>
     <t>element: margin, freemargin (balance calculate yourself)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{requestid, clientid, side, pnsoid,poid,pnsid, pnsgid, price, quant}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{requestid, clientid, oid, side,pnsoid,poid,pnsid, pnsgid, price, quant, status}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{requestid, clientid, oid, cid, side, pnsoid, poid, pnsid, pnsgid, price, quant}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{requestid, clientid, oid, cid, side, pnsoid, poid, pnsid, pnsgid, price, quant, status}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -656,7 +624,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -683,21 +651,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -751,7 +704,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -770,18 +723,28 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -789,23 +752,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1086,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1097,9 +1044,9 @@
     <col min="1" max="1" width="22.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.125" customWidth="1"/>
+    <col min="4" max="4" width="72.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.25" customWidth="1"/>
+    <col min="6" max="6" width="50.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="52.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1117,14 +1064,14 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
@@ -1139,9 +1086,12 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
+      <c r="F2" s="19">
+        <v>43263</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
+      <c r="A3" s="13"/>
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -1149,17 +1099,20 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
+      </c>
+      <c r="F3" s="19">
+        <v>43263</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
@@ -1169,14 +1122,17 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
       </c>
+      <c r="F5" s="19">
+        <v>43263</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
+      <c r="A6" s="13"/>
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -1184,17 +1140,20 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="E6" t="s">
         <v>3</v>
+      </c>
+      <c r="F6" s="19">
+        <v>43263</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B8" t="s">
@@ -1204,14 +1163,17 @@
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="E8" t="s">
         <v>3</v>
       </c>
+      <c r="F8" s="19">
+        <v>43263</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
+      <c r="A9" s="13"/>
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -1219,17 +1181,20 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="E9" t="s">
         <v>3</v>
+      </c>
+      <c r="F9" s="19">
+        <v>43263</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="16" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="s">
@@ -1239,14 +1204,17 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="E11" t="s">
         <v>3</v>
       </c>
+      <c r="F11" s="19">
+        <v>43263</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
+      <c r="A12" s="16"/>
       <c r="B12" t="s">
         <v>18</v>
       </c>
@@ -1254,17 +1222,20 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="E12" t="s">
         <v>3</v>
+      </c>
+      <c r="F12" s="19">
+        <v>43263</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B14" t="s">
@@ -1274,14 +1245,14 @@
         <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
+      <c r="A15" s="13"/>
       <c r="B15" t="s">
         <v>28</v>
       </c>
@@ -1289,7 +1260,7 @@
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
         <v>3</v>
@@ -1298,530 +1269,479 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="8" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="15"/>
+      <c r="B26" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="14"/>
+      <c r="B29" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="14"/>
+      <c r="B32" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="14"/>
+      <c r="B35" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="B37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" t="s">
+        <v>102</v>
+      </c>
+      <c r="F37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="13"/>
+      <c r="B38" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="8" t="s">
+      <c r="C38" t="s">
         <v>100</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="D38" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" t="s">
+        <v>102</v>
+      </c>
+      <c r="F40" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="13"/>
+      <c r="B41" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="8" t="s">
+      <c r="C41" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="D20" t="s">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="D43" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="13"/>
+      <c r="B44" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
-      <c r="B31" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="15"/>
-      <c r="B40" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B42" t="s">
-        <v>110</v>
-      </c>
-      <c r="C42" t="s">
-        <v>111</v>
-      </c>
-      <c r="D42" t="s">
-        <v>48</v>
-      </c>
-      <c r="E42" t="s">
-        <v>114</v>
-      </c>
-      <c r="F42" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="9"/>
-      <c r="B43" t="s">
+      <c r="E44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" t="s">
         <v>113</v>
       </c>
-      <c r="C43" t="s">
-        <v>112</v>
-      </c>
-      <c r="D43" t="s">
-        <v>51</v>
-      </c>
-      <c r="E43" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B45" t="s">
-        <v>117</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>115</v>
       </c>
-      <c r="D45" t="s">
-        <v>48</v>
-      </c>
-      <c r="E45" t="s">
-        <v>114</v>
-      </c>
-      <c r="F45" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="9"/>
-      <c r="B46" t="s">
+      <c r="D46" t="s">
         <v>118</v>
-      </c>
-      <c r="C46" t="s">
-        <v>116</v>
-      </c>
-      <c r="D46" t="s">
-        <v>51</v>
       </c>
       <c r="E46" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="9" t="s">
+      <c r="F46" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="13"/>
+      <c r="B47" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" t="s">
         <v>121</v>
       </c>
-      <c r="B48" t="s">
-        <v>122</v>
-      </c>
-      <c r="C48" t="s">
-        <v>119</v>
-      </c>
-      <c r="D48" t="s">
-        <v>48</v>
-      </c>
-      <c r="E48" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="C50" t="s">
+        <v>127</v>
+      </c>
+      <c r="D50" t="s">
+        <v>118</v>
+      </c>
+      <c r="E50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="13"/>
+      <c r="B51" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" t="s">
+        <v>128</v>
+      </c>
+      <c r="D51" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B53" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" t="s">
+        <v>132</v>
+      </c>
+      <c r="D53" t="s">
+        <v>118</v>
+      </c>
+      <c r="E53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="13"/>
+      <c r="B54" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54" t="s">
+        <v>129</v>
+      </c>
+      <c r="D54" t="s">
+        <v>50</v>
+      </c>
+      <c r="E54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" s="9" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="9"/>
-      <c r="B49" t="s">
-        <v>123</v>
-      </c>
-      <c r="C49" t="s">
-        <v>120</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="C56" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="11"/>
+      <c r="B57" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="9"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="9"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="12"/>
+      <c r="B60" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D60" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E49" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B51" t="s">
-        <v>125</v>
-      </c>
-      <c r="C51" t="s">
-        <v>127</v>
-      </c>
-      <c r="D51" t="s">
-        <v>130</v>
-      </c>
-      <c r="E51" t="s">
-        <v>126</v>
-      </c>
-      <c r="F51" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="9"/>
-      <c r="B52" t="s">
-        <v>129</v>
-      </c>
-      <c r="C52" t="s">
-        <v>128</v>
-      </c>
-      <c r="D52" t="s">
-        <v>51</v>
-      </c>
-      <c r="E52" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B55" t="s">
-        <v>133</v>
-      </c>
-      <c r="C55" t="s">
-        <v>139</v>
-      </c>
-      <c r="D55" t="s">
-        <v>130</v>
-      </c>
-      <c r="E55" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="9"/>
-      <c r="B56" t="s">
-        <v>138</v>
-      </c>
-      <c r="C56" t="s">
-        <v>140</v>
-      </c>
-      <c r="D56" t="s">
-        <v>51</v>
-      </c>
-      <c r="E56" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B58" t="s">
-        <v>142</v>
-      </c>
-      <c r="C58" t="s">
-        <v>144</v>
-      </c>
-      <c r="D58" t="s">
-        <v>130</v>
-      </c>
-      <c r="E58" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="9"/>
-      <c r="B59" t="s">
-        <v>143</v>
-      </c>
-      <c r="C59" t="s">
-        <v>141</v>
-      </c>
-      <c r="D59" t="s">
-        <v>51</v>
-      </c>
-      <c r="E59" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="B61" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="D61" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E61" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F61" s="19" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="20"/>
-      <c r="B62" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="C62" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="D62" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E62" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="19"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="19"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="C64" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="D64" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E64" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F64" s="19"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="21"/>
-      <c r="B65" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="D65" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E65" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F65" s="19"/>
+      <c r="E60" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A39:A40"/>
+  <mergeCells count="17">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A46:A47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1848,68 +1768,68 @@
   <sheetData>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>146</v>
+      <c r="A5" s="17" t="s">
+        <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
+      <c r="A6" s="18"/>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C6" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="13"/>
+      <c r="B9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" t="s">
         <v>51</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="B8" t="s">
-        <v>150</v>
-      </c>
-      <c r="C8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" t="s">
-        <v>151</v>
-      </c>
-      <c r="C9" t="s">
-        <v>155</v>
-      </c>
-      <c r="D9" t="s">
-        <v>52</v>
       </c>
       <c r="E9" t="s">
         <v>3</v>
@@ -1948,24 +1868,24 @@
   <sheetData>
     <row r="5" spans="3:16" x14ac:dyDescent="0.2">
       <c r="K5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.2">
       <c r="L6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" t="s">
         <v>68</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>69</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>70</v>
       </c>
-      <c r="O6" t="s">
-        <v>71</v>
-      </c>
       <c r="P6" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.2">
@@ -1984,38 +1904,38 @@
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.2">
       <c r="G9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.2">
       <c r="H10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" t="s">
         <v>64</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" t="s">
         <v>78</v>
-      </c>
-      <c r="F12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.2">
@@ -2023,16 +1943,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -2040,42 +1960,42 @@
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" t="s">
         <v>75</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>76</v>
-      </c>
-      <c r="E15" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" t="s">
         <v>90</v>
       </c>
-      <c r="D19" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F19" t="s">
-        <v>94</v>
-      </c>
-      <c r="G19" t="s">
-        <v>84</v>
-      </c>
-      <c r="H19" t="s">
-        <v>88</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>91</v>
       </c>
-      <c r="J19" t="s">
-        <v>92</v>
-      </c>
       <c r="K19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="3:24" x14ac:dyDescent="0.2">
@@ -2106,28 +2026,28 @@
     </row>
     <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="Q27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R27" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="S27" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="S27" s="7" t="s">
+      <c r="T27" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="U27" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="V27" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="W27" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="T27" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="U27" s="7" t="s">
+      <c r="X27" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="V27" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="W27" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="X27" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="28" spans="3:24" x14ac:dyDescent="0.2">
@@ -2142,21 +2062,21 @@
         <v>0</v>
       </c>
       <c r="V28" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W28" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X28" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="P29" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="U29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/msg_pns.xlsx
+++ b/msg_pns.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{93BA8582-2869-4045-B76B-00D2E46F3522}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FD14C9EC-169E-4C54-85D6-522197876D60}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="162">
   <si>
     <t>msg_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -617,6 +617,58 @@
   </si>
   <si>
     <t>{requestid, clientid, oid, cid, side, pnsoid, poid, pnsid, pnsgid, price, quant, status}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cDCancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cDCancelAns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cPCancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cPCancelAns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x701E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x701F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{requestid, clientid, oid, cid, side, pnsoid, poid, pnsid, pnsgid, amount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{requestid, clientid, oid, cid, side, pnsoid, poid, pnsid, pnsgid, amount, status}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x7010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x701D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -725,6 +777,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -734,25 +799,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1036,7 +1088,7 @@
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1071,7 +1123,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
@@ -1086,12 +1138,12 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="10">
         <v>43263</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="13"/>
+      <c r="A3" s="11"/>
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -1104,7 +1156,7 @@
       <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="10">
         <v>43263</v>
       </c>
     </row>
@@ -1112,7 +1164,7 @@
       <c r="A4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
@@ -1127,12 +1179,12 @@
       <c r="E5" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="10">
         <v>43263</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
+      <c r="A6" s="11"/>
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -1145,7 +1197,7 @@
       <c r="E6" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="10">
         <v>43263</v>
       </c>
     </row>
@@ -1153,7 +1205,7 @@
       <c r="A7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B8" t="s">
@@ -1168,12 +1220,12 @@
       <c r="E8" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="10">
         <v>43263</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
+      <c r="A9" s="11"/>
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -1186,7 +1238,7 @@
       <c r="E9" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="10">
         <v>43263</v>
       </c>
     </row>
@@ -1194,7 +1246,7 @@
       <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="s">
@@ -1209,12 +1261,12 @@
       <c r="E11" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="10">
         <v>43263</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
+      <c r="A12" s="12"/>
       <c r="B12" t="s">
         <v>18</v>
       </c>
@@ -1227,7 +1279,7 @@
       <c r="E12" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="10">
         <v>43263</v>
       </c>
     </row>
@@ -1235,7 +1287,7 @@
       <c r="A13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B14" t="s">
@@ -1252,7 +1304,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
+      <c r="A15" s="11"/>
       <c r="B15" t="s">
         <v>28</v>
       </c>
@@ -1269,31 +1321,98 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" s="10">
+        <v>43265</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="11"/>
+      <c r="B18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" t="s">
+        <v>157</v>
+      </c>
+      <c r="F18" s="10">
+        <v>43265</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E20" t="s">
+        <v>157</v>
+      </c>
+      <c r="F20" s="10">
+        <v>43265</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="11"/>
+      <c r="B21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D21" t="s">
+        <v>159</v>
+      </c>
+      <c r="E21" t="s">
+        <v>157</v>
+      </c>
+      <c r="F21" s="10">
+        <v>43265</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
         <v>44</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -1309,8 +1428,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="14"/>
       <c r="B26" s="8" t="s">
         <v>40</v>
       </c>
@@ -1324,15 +1443,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
         <v>53</v>
       </c>
       <c r="B28" s="8" t="s">
@@ -1348,8 +1467,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="13"/>
       <c r="B29" s="8" t="s">
         <v>41</v>
       </c>
@@ -1363,15 +1482,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="8" t="s">
@@ -1387,8 +1506,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="13"/>
       <c r="B32" s="8" t="s">
         <v>42</v>
       </c>
@@ -1410,7 +1529,7 @@
       <c r="E33" s="8"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="13" t="s">
         <v>55</v>
       </c>
       <c r="B34" s="8" t="s">
@@ -1427,7 +1546,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="8" t="s">
         <v>43</v>
       </c>
@@ -1442,7 +1561,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="11" t="s">
         <v>98</v>
       </c>
       <c r="B37" t="s">
@@ -1462,7 +1581,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="13"/>
+      <c r="A38" s="11"/>
       <c r="B38" t="s">
         <v>101</v>
       </c>
@@ -1477,7 +1596,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="11" t="s">
         <v>105</v>
       </c>
       <c r="B40" t="s">
@@ -1497,7 +1616,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
+      <c r="A41" s="11"/>
       <c r="B41" t="s">
         <v>106</v>
       </c>
@@ -1512,7 +1631,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="11" t="s">
         <v>109</v>
       </c>
       <c r="B43" t="s">
@@ -1532,7 +1651,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="13"/>
+      <c r="A44" s="11"/>
       <c r="B44" t="s">
         <v>111</v>
       </c>
@@ -1547,7 +1666,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="11" t="s">
         <v>112</v>
       </c>
       <c r="B46" t="s">
@@ -1567,7 +1686,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="13"/>
+      <c r="A47" s="11"/>
       <c r="B47" t="s">
         <v>117</v>
       </c>
@@ -1582,7 +1701,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="11" t="s">
         <v>119</v>
       </c>
       <c r="B50" t="s">
@@ -1599,7 +1718,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="13"/>
+      <c r="A51" s="11"/>
       <c r="B51" t="s">
         <v>126</v>
       </c>
@@ -1614,7 +1733,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="11" t="s">
         <v>120</v>
       </c>
       <c r="B53" t="s">
@@ -1631,7 +1750,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="13"/>
+      <c r="A54" s="11"/>
       <c r="B54" t="s">
         <v>131</v>
       </c>
@@ -1646,7 +1765,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="15" t="s">
         <v>134</v>
       </c>
       <c r="B56" s="9" t="s">
@@ -1666,7 +1785,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="11"/>
+      <c r="A57" s="16"/>
       <c r="B57" s="9" t="s">
         <v>137</v>
       </c>
@@ -1690,7 +1809,7 @@
       <c r="F58" s="9"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="17" t="s">
         <v>135</v>
       </c>
       <c r="B59" s="9" t="s">
@@ -1708,7 +1827,7 @@
       <c r="F59" s="9"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="12"/>
+      <c r="A60" s="17"/>
       <c r="B60" s="9" t="s">
         <v>139</v>
       </c>
@@ -1724,12 +1843,14 @@
       <c r="F60" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A14:A15"/>
+  <mergeCells count="19">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A46:A47"/>
     <mergeCell ref="A43:A44"/>
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="A40:A41"/>
@@ -1737,11 +1858,11 @@
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1772,7 +1893,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>134</v>
       </c>
       <c r="B5" t="s">
@@ -1789,7 +1910,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
+      <c r="A6" s="19"/>
       <c r="B6" t="s">
         <v>137</v>
       </c>
@@ -1804,7 +1925,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="11" t="s">
         <v>135</v>
       </c>
       <c r="B8" t="s">
@@ -1821,7 +1942,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
+      <c r="A9" s="11"/>
       <c r="B9" t="s">
         <v>139</v>
       </c>
